--- a/SS_Experiment_Output/LO19_results.xlsx
+++ b/SS_Experiment_Output/LO19_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\SS_Experiment_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F036B5E-8E4A-40CA-B390-BCC244CB67F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F2A1DF-CECA-4A91-A029-E5EBE5DB6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C26C3E7-F3D7-487B-BFC2-E9E4FBC2D060}"/>
+    <workbookView xWindow="-28920" yWindow="8250" windowWidth="29040" windowHeight="15840" xr2:uid="{4C26C3E7-F3D7-487B-BFC2-E9E4FBC2D060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>START</t>
   </si>
@@ -42,9 +42,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>Error ("-" = early)</t>
-  </si>
-  <si>
     <t>3 Months Old</t>
   </si>
   <si>
@@ -72,20 +69,29 @@
     <t>Elevation Angle</t>
   </si>
   <si>
-    <t>Current TLE CAS-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Window Length 1 </t>
   </si>
   <si>
     <t>Window Length 2</t>
+  </si>
+  <si>
+    <t>Error 1 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 2 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 3 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Current TLE LO-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +156,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -207,7 +220,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -220,6 +233,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -545,7 +559,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +576,7 @@
         <v>98.8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,24 +603,27 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9">
         <v>44454.374768518515</v>
@@ -625,6 +642,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="M3" s="6" t="str">
         <f>TEXT(C3-B3,"h:mm:ss")</f>
         <v>0:06:10</v>
@@ -633,14 +651,14 @@
         <f>TEXT(E3-D3,"h:mm:ss")</f>
         <v>0:06:05</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="10" t="str">
         <f>TEXT(G3-F3,"h:mm:ss")</f>
         <v>0:00:00</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>53.461140200000003</v>
@@ -657,10 +675,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-82.842022049999997</v>
@@ -677,10 +696,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>795233.15520000004</v>
@@ -697,10 +717,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>25.149699999999999</v>
@@ -717,11 +738,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -731,6 +753,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -749,19 +772,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="M9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>44454.374768518515</v>
@@ -783,7 +807,11 @@
         <v>-0:00:00</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C10,"h:mm:ss"))))</f>
+        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D10,"h:mm:ss"))))</f>
+        <v>-0:00:05</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f>IF(F3-F10&lt;0,(TEXT(ABS(F3-F10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F10,"h:mm:ss"))))</f>
         <v>-0:00:00</v>
       </c>
       <c r="M10" s="6" t="str">
@@ -794,14 +822,14 @@
         <f>TEXT(E10-D10,"h:mm:ss")</f>
         <v>0:06:10</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="O10" s="10" t="str">
         <f>TEXT(G10-F10,"h:mm:ss")</f>
         <v>0:00:00</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>53.315096189999998</v>
@@ -821,7 +849,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>-82.989887690000003</v>
@@ -841,7 +869,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>795448.32499999995</v>
@@ -861,7 +889,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>25.627800000000001</v>
@@ -882,7 +910,7 @@
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -911,18 +939,18 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="M16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="9">
         <v>44454.374594907407</v>
@@ -944,8 +972,12 @@
         <v>-0:00:15</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C17,"h:mm:ss"))))</f>
-        <v>-0:00:10</v>
+        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D17,"h:mm:ss"))))</f>
+        <v>-0:00:15</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f>IF(F3-F17&lt;0,(TEXT(ABS(F3-F17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F17,"h:mm:ss"))))</f>
+        <v>-0:00:00</v>
       </c>
       <c r="M17" s="6" t="str">
         <f>TEXT(C17-B17,"h:mm:ss")</f>
@@ -955,14 +987,14 @@
         <f>TEXT(E17-D17,"h:mm:ss")</f>
         <v>0:06:05</v>
       </c>
-      <c r="O17" s="6" t="str">
+      <c r="O17" s="10" t="str">
         <f>TEXT(G17-F17,"h:mm:ss")</f>
         <v>0:00:00</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>53.528539909999999</v>
@@ -979,10 +1011,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>-83.051527949999993</v>
@@ -999,10 +1032,11 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>796660.86829999997</v>
@@ -1019,10 +1053,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>25.169</v>
@@ -1039,11 +1074,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1053,6 +1089,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1071,19 +1108,20 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="M23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="9">
         <v>44454.375</v>
@@ -1105,8 +1143,12 @@
         <v>0:00:20</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C24,"h:mm:ss"))))</f>
+        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D24,"h:mm:ss"))))</f>
         <v>0:00:20</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f>IF(F3-F24&lt;0,(TEXT(ABS(F3-F24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F24,"h:mm:ss"))))</f>
+        <v>-0:00:00</v>
       </c>
       <c r="M24" s="6" t="str">
         <f>TEXT(C24-B24,"h:mm:ss")</f>
@@ -1116,14 +1158,14 @@
         <f>TEXT(E24-D24,"h:mm:ss")</f>
         <v>0:06:00</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="10" t="str">
         <f>TEXT(G24-F24,"h:mm:ss")</f>
         <v>0:00:00</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>53.425320079999999</v>
@@ -1140,10 +1182,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>-83.632068970000006</v>
@@ -1160,10 +1203,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>796486.48739999998</v>
@@ -1180,10 +1224,11 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>25.813199999999998</v>
@@ -1200,11 +1245,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1214,6 +1260,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
@@ -1234,19 +1281,20 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="M30" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="9">
         <v>44454.376620370371</v>
@@ -1268,8 +1316,12 @@
         <v>0:02:40</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(D3-D31&lt;0,(TEXT(ABS(D3-D31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C31,"h:mm:ss"))))</f>
+        <f>IF(D3-D31&lt;0,(TEXT(ABS(D3-D31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D31,"h:mm:ss"))))</f>
         <v>0:02:50</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f>IF(F3-F31&lt;0,(TEXT(ABS(F3-F31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F31,"h:mm:ss"))))</f>
+        <v>-0:00:00</v>
       </c>
       <c r="M31" s="6" t="str">
         <f>TEXT(C31-B31,"h:mm:ss")</f>
@@ -1279,14 +1331,14 @@
         <f>TEXT(E31-D31,"h:mm:ss")</f>
         <v>0:05:50</v>
       </c>
-      <c r="O31" s="6" t="str">
+      <c r="O31" s="10" t="str">
         <f>TEXT(G31-F31,"h:mm:ss")</f>
         <v>0:00:00</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>53.906865590000002</v>
@@ -1305,10 +1357,11 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>-84.694103029999994</v>
@@ -1330,7 +1383,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>795482.13280000002</v>
@@ -1352,7 +1405,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>25.133400000000002</v>
